--- a/src/main/resources/caseconf/GrantInvalid/Case_GrantInvalid.xlsx
+++ b/src/main/resources/caseconf/GrantInvalid/Case_GrantInvalid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10070"/>
   </bookViews>
   <sheets>
     <sheet name="GrantInvalid" sheetId="2" r:id="rId1"/>
@@ -208,16 +208,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
-insert into tenant_user_grant values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>更新成功</t>
     <rPh sb="0" eb="1">
       <t>geng'xin</t>
@@ -330,15 +320,6 @@
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from tenant_user_grant where user_id = 699222007535509504;</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -459,6 +440,24 @@
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.invalid(***.web.request.GrantInvalidRequest): [Field error in object 'grantInvalidRequest' on field 'grantId': rejected value [null]; codes [NotNull.grantInvalidRequest.grantId,NotNull.grantId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantInvalidRequest.grantId,grantId]; arguments []; default message [grantId]]; default message [grant id cannot be null]] "
 }</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"0","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
+delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from tenant_user_grant where user_id = 699222007535509504</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1092,9 +1091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1177,40 +1176,40 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="48" t="s">
         <v>38</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>40</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="51" t="s">
         <v>41</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="144" customHeight="1">
@@ -1218,30 +1217,30 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="K3" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="35"/>
       <c r="O3" s="42"/>
@@ -1251,30 +1250,30 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" s="36"/>
       <c r="O4" s="41"/>
@@ -1284,30 +1283,30 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="K5" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="35"/>
       <c r="O5" s="42"/>
@@ -1319,30 +1318,30 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="K6" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N6" s="35"/>
       <c r="O6" s="42"/>
@@ -1352,30 +1351,30 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="42"/>
@@ -1385,30 +1384,30 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>38</v>
-      </c>
       <c r="K8" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="17.5">

--- a/src/main/resources/caseconf/GrantInvalid/Case_GrantInvalid.xlsx
+++ b/src/main/resources/caseconf/GrantInvalid/Case_GrantInvalid.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wecash/Desktop/Data_Center_Platform1111/src/main/resources/caseconf/GrantInvalid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10070"/>
+    <workbookView xWindow="40" yWindow="-19880" windowWidth="32620" windowHeight="16120"/>
   </bookViews>
   <sheets>
     <sheet name="GrantInvalid" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -453,19 +464,44 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>已失效，再次失效</t>
+    <rPh sb="0" eb="1">
+      <t>yi'shi'xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zai'ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'xiao</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");
+insert into tenant_user_grant (id,tenant_id,user_id,type_id,grant_account,info,grant_status,create_time,update_time) values ("700311580205498368","1001","699222007535509504",2,"4f82d6478e368b2dbc23ff648ef7ef1f",NULL,"-2","2020-04-16 10:48:12","2020-04-16 10:48:12")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrantInvalid-008</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
+delete from user_basic_info where tenant_user_id ="000113"  and tenant_id = "1001";
+delete from user_info_item where tenant_user_id = "000113" and tenant_id = "1001";
+delete from user_index where tenant_user_id = "000113" and tenant_id = "1001";
 delete from tenant_user_grant where user_id = 699222007535509504</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,7 +623,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,18 +654,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -649,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -789,13 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1089,36 +1107,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="37" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.58203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="13" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="37" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="83.1640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="13" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="15" style="37" customWidth="1"/>
     <col min="15" max="15" width="33.83203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17.9140625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" style="5" customWidth="1"/>
     <col min="17" max="17" width="35" style="5" customWidth="1"/>
     <col min="18" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,14 +1189,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="372.5" customHeight="1">
+    <row r="2" spans="1:17" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="15"/>
@@ -1187,7 +1205,7 @@
         <v>52</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>35</v>
@@ -1198,36 +1216,40 @@
       <c r="J2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="47" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="51" t="s">
+      <c r="O2" s="49" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="144" customHeight="1">
+    <row r="3" spans="1:17" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>26</v>
+      <c r="C3" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="H3" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="16" t="s">
         <v>19</v>
@@ -1235,32 +1257,36 @@
       <c r="J3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>43</v>
+      <c r="K3" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="L3" s="16"/>
-      <c r="M3" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" ht="80.5" customHeight="1">
+      <c r="M3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>20</v>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>19</v>
@@ -1269,16 +1295,16 @@
         <v>37</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="41"/>
-    </row>
-    <row r="5" spans="1:17" ht="174" customHeight="1">
+      <c r="M4" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="35"/>
+      <c r="O4" s="42"/>
+    </row>
+    <row r="5" spans="1:17" ht="80.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1286,14 +1312,14 @@
         <v>31</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>19</v>
@@ -1302,18 +1328,16 @@
         <v>37</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L5" s="16"/>
-      <c r="M5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-    </row>
-    <row r="6" spans="1:17" ht="252">
+      <c r="M5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="41"/>
+    </row>
+    <row r="6" spans="1:17" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1345,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -1337,31 +1361,33 @@
         <v>37</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N6" s="35"/>
       <c r="O6" s="42"/>
-    </row>
-    <row r="7" spans="1:17" ht="266">
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+    </row>
+    <row r="7" spans="1:17" ht="270" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>24</v>
+      <c r="C7" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>19</v>
@@ -1370,31 +1396,31 @@
         <v>37</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="42"/>
     </row>
-    <row r="8" spans="1:17" ht="59.5" customHeight="1">
+    <row r="8" spans="1:17" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>25</v>
+      <c r="C8" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>19</v>
@@ -1403,29 +1429,47 @@
         <v>37</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="17.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="N8" s="35"/>
+      <c r="O8" s="42"/>
+    </row>
+    <row r="9" spans="1:17" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="44"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>50</v>
+      </c>
       <c r="L9" s="16"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="17.5">
+      <c r="M9" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="19"/>
@@ -1439,10 +1483,8 @@
       <c r="K10" s="18"/>
       <c r="L10" s="16"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="19"/>
@@ -1459,7 +1501,7 @@
       <c r="N11" s="38"/>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:17" s="11" customFormat="1" ht="17.5">
+    <row r="12" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="19"/>
@@ -1472,11 +1514,11 @@
       <c r="J12" s="27"/>
       <c r="K12" s="18"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="21"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="38"/>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:17" s="11" customFormat="1" ht="17.5">
+    <row r="13" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="19"/>
@@ -1493,7 +1535,7 @@
       <c r="N13" s="38"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:17" ht="17.5">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="19"/>
@@ -1507,8 +1549,10 @@
       <c r="K14" s="18"/>
       <c r="L14" s="16"/>
       <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.5">
+      <c r="N14" s="38"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="19"/>
@@ -1521,9 +1565,9 @@
       <c r="J15" s="27"/>
       <c r="K15" s="18"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.5">
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="19"/>
@@ -1538,22 +1582,22 @@
       <c r="L16" s="16"/>
       <c r="M16" s="25"/>
     </row>
-    <row r="17" spans="1:15" ht="114.5" customHeight="1">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="22"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="10"/>
       <c r="I17" s="17"/>
       <c r="J17" s="27"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="24"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="25"/>
     </row>
-    <row r="18" spans="1:15" ht="119" customHeight="1">
+    <row r="18" spans="1:13" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="22"/>
@@ -1568,25 +1612,25 @@
       <c r="L18" s="24"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:15" ht="169.5" customHeight="1">
+    <row r="19" spans="1:13" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="15"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="10"/>
       <c r="I19" s="17"/>
       <c r="J19" s="27"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="1:15" ht="17.5">
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="44"/>
@@ -1598,14 +1642,14 @@
       <c r="L20" s="16"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:15" ht="17.5">
+    <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="22"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="10"/>
       <c r="I21" s="17"/>
       <c r="J21" s="27"/>
@@ -1613,7 +1657,7 @@
       <c r="L21" s="16"/>
       <c r="M21" s="18"/>
     </row>
-    <row r="22" spans="1:15" ht="17.5">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="22"/>
@@ -1628,7 +1672,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="18"/>
     </row>
-    <row r="23" spans="1:15" ht="17.5">
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="22"/>
@@ -1643,7 +1687,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="18"/>
     </row>
-    <row r="24" spans="1:15" ht="105" customHeight="1">
+    <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="22"/>
@@ -1658,14 +1702,14 @@
       <c r="L24" s="16"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:15" ht="17.5">
+    <row r="25" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="15"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="10"/>
       <c r="I25" s="17"/>
       <c r="J25" s="27"/>
@@ -1673,7 +1717,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="116.5" customHeight="1">
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="19"/>
@@ -1688,7 +1732,7 @@
       <c r="L26" s="16"/>
       <c r="M26" s="18"/>
     </row>
-    <row r="27" spans="1:15" ht="17.5">
+    <row r="27" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="19"/>
@@ -1703,7 +1747,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:15" ht="17.5">
+    <row r="28" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19"/>
@@ -1718,7 +1762,7 @@
       <c r="L28" s="16"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:15" ht="17.5">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="19"/>
@@ -1733,7 +1777,7 @@
       <c r="L29" s="16"/>
       <c r="M29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="117.5" customHeight="1">
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="19"/>
@@ -1748,7 +1792,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="18"/>
     </row>
-    <row r="31" spans="1:15" ht="17.5">
+    <row r="31" spans="1:13" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="19"/>
@@ -1763,7 +1807,7 @@
       <c r="L31" s="16"/>
       <c r="M31" s="18"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="19"/>
@@ -1777,10 +1821,8 @@
       <c r="K32" s="18"/>
       <c r="L32" s="16"/>
       <c r="M32" s="18"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="12"/>
-    </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="19"/>
@@ -1797,7 +1839,7 @@
       <c r="N33" s="38"/>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="19"/>
@@ -1814,7 +1856,7 @@
       <c r="N34" s="38"/>
       <c r="O34" s="12"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="19"/>
@@ -1825,13 +1867,13 @@
       <c r="H35" s="10"/>
       <c r="I35" s="17"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="16"/>
       <c r="M35" s="18"/>
       <c r="N35" s="38"/>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1">
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="19"/>
@@ -1842,13 +1884,13 @@
       <c r="H36" s="10"/>
       <c r="I36" s="17"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="18"/>
+      <c r="K36" s="21"/>
       <c r="L36" s="16"/>
       <c r="M36" s="18"/>
       <c r="N36" s="38"/>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="19"/>
@@ -1861,11 +1903,11 @@
       <c r="J37" s="27"/>
       <c r="K37" s="18"/>
       <c r="L37" s="16"/>
-      <c r="M37" s="25"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="38"/>
       <c r="O37" s="12"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1">
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="19"/>
@@ -1882,24 +1924,24 @@
       <c r="N38" s="38"/>
       <c r="O38" s="12"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="22"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="10"/>
       <c r="I39" s="17"/>
       <c r="J39" s="27"/>
       <c r="K39" s="18"/>
-      <c r="L39" s="24"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="25"/>
       <c r="N39" s="38"/>
       <c r="O39" s="12"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="22"/>
@@ -1916,24 +1958,24 @@
       <c r="N40" s="38"/>
       <c r="O40" s="12"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="15"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="10"/>
       <c r="I41" s="17"/>
       <c r="J41" s="27"/>
       <c r="K41" s="18"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="18"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="25"/>
       <c r="N41" s="38"/>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="22"/>
@@ -1950,7 +1992,7 @@
       <c r="N42" s="38"/>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="22"/>
@@ -1967,7 +2009,7 @@
       <c r="N43" s="38"/>
       <c r="O43" s="12"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="22"/>
@@ -1984,24 +2026,24 @@
       <c r="N44" s="38"/>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="29"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="10"/>
       <c r="I45" s="17"/>
       <c r="J45" s="27"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="30"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="38"/>
       <c r="O45" s="12"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1">
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="22"/>
@@ -2018,7 +2060,7 @@
       <c r="N46" s="38"/>
       <c r="O46" s="12"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="22"/>
@@ -2035,7 +2077,7 @@
       <c r="N47" s="38"/>
       <c r="O47" s="12"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="22"/>
@@ -2052,7 +2094,7 @@
       <c r="N48" s="38"/>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="22"/>
@@ -2069,7 +2111,7 @@
       <c r="N49" s="38"/>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="22"/>
@@ -2086,7 +2128,7 @@
       <c r="N50" s="38"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="22"/>
@@ -2103,7 +2145,7 @@
       <c r="N51" s="38"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1">
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="22"/>
@@ -2120,7 +2162,7 @@
       <c r="N52" s="38"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="22"/>
@@ -2137,7 +2179,7 @@
       <c r="N53" s="38"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="22"/>
@@ -2154,7 +2196,7 @@
       <c r="N54" s="38"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="22"/>
@@ -2171,7 +2213,7 @@
       <c r="N55" s="38"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="22"/>
@@ -2188,27 +2230,27 @@
       <c r="N56" s="38"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="15"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="29"/>
       <c r="H57" s="10"/>
       <c r="I57" s="17"/>
       <c r="J57" s="27"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="18"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="30"/>
       <c r="N57" s="38"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="19"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="44"/>
@@ -2222,7 +2264,7 @@
       <c r="N58" s="38"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="19"/>
@@ -2235,11 +2277,11 @@
       <c r="J59" s="27"/>
       <c r="K59" s="18"/>
       <c r="L59" s="16"/>
-      <c r="M59" s="21"/>
+      <c r="M59" s="18"/>
       <c r="N59" s="38"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="19"/>
@@ -2256,7 +2298,7 @@
       <c r="N60" s="38"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="19"/>
@@ -2273,7 +2315,7 @@
       <c r="N61" s="38"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="19"/>
@@ -2290,7 +2332,7 @@
       <c r="N62" s="38"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="19"/>
@@ -2303,11 +2345,11 @@
       <c r="J63" s="27"/>
       <c r="K63" s="18"/>
       <c r="L63" s="16"/>
-      <c r="M63" s="18"/>
+      <c r="M63" s="21"/>
       <c r="N63" s="38"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" ht="17.5">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="19"/>
@@ -2321,8 +2363,10 @@
       <c r="K64" s="18"/>
       <c r="L64" s="16"/>
       <c r="M64" s="18"/>
-    </row>
-    <row r="65" spans="1:13" ht="158.5" customHeight="1">
+      <c r="N64" s="38"/>
+      <c r="O64" s="12"/>
+    </row>
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="19"/>
@@ -2337,7 +2381,7 @@
       <c r="L65" s="16"/>
       <c r="M65" s="18"/>
     </row>
-    <row r="66" spans="1:13" ht="17.5">
+    <row r="66" spans="1:13" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="19"/>
@@ -2350,9 +2394,9 @@
       <c r="J66" s="27"/>
       <c r="K66" s="18"/>
       <c r="L66" s="16"/>
-      <c r="M66" s="21"/>
-    </row>
-    <row r="67" spans="1:13" ht="91.75" customHeight="1">
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="19"/>
@@ -2367,7 +2411,7 @@
       <c r="L67" s="16"/>
       <c r="M67" s="21"/>
     </row>
-    <row r="68" spans="1:13" ht="165" customHeight="1">
+    <row r="68" spans="1:13" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="19"/>
@@ -2379,10 +2423,10 @@
       <c r="I68" s="17"/>
       <c r="J68" s="27"/>
       <c r="K68" s="18"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="30"/>
-    </row>
-    <row r="69" spans="1:13" ht="108" customHeight="1">
+      <c r="L68" s="16"/>
+      <c r="M68" s="21"/>
+    </row>
+    <row r="69" spans="1:13" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="19"/>
@@ -2394,10 +2438,10 @@
       <c r="I69" s="17"/>
       <c r="J69" s="27"/>
       <c r="K69" s="18"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="25"/>
-    </row>
-    <row r="70" spans="1:13" ht="101" customHeight="1">
+      <c r="L69" s="29"/>
+      <c r="M69" s="30"/>
+    </row>
+    <row r="70" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="19"/>
@@ -2412,22 +2456,22 @@
       <c r="L70" s="16"/>
       <c r="M70" s="25"/>
     </row>
-    <row r="71" spans="1:13" ht="88" customHeight="1">
+    <row r="71" spans="1:13" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="22"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="10"/>
       <c r="I71" s="17"/>
       <c r="J71" s="27"/>
       <c r="K71" s="18"/>
-      <c r="L71" s="24"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="25"/>
     </row>
-    <row r="72" spans="1:13" ht="98" customHeight="1">
+    <row r="72" spans="1:13" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="22"/>
@@ -2442,22 +2486,22 @@
       <c r="L72" s="24"/>
       <c r="M72" s="25"/>
     </row>
-    <row r="73" spans="1:13" ht="156" customHeight="1">
+    <row r="73" spans="1:13" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="15"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="22"/>
       <c r="H73" s="10"/>
       <c r="I73" s="17"/>
       <c r="J73" s="27"/>
       <c r="K73" s="18"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="18"/>
-    </row>
-    <row r="74" spans="1:13" ht="172.5" customHeight="1">
+      <c r="L73" s="24"/>
+      <c r="M73" s="25"/>
+    </row>
+    <row r="74" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="22"/>
@@ -2472,7 +2516,7 @@
       <c r="L74" s="16"/>
       <c r="M74" s="18"/>
     </row>
-    <row r="75" spans="1:13" ht="79" customHeight="1">
+    <row r="75" spans="1:13" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="22"/>
@@ -2487,7 +2531,7 @@
       <c r="L75" s="16"/>
       <c r="M75" s="18"/>
     </row>
-    <row r="76" spans="1:13" ht="102.5" customHeight="1">
+    <row r="76" spans="1:13" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="22"/>
@@ -2502,7 +2546,7 @@
       <c r="L76" s="16"/>
       <c r="M76" s="18"/>
     </row>
-    <row r="77" spans="1:13" ht="51" customHeight="1">
+    <row r="77" spans="1:13" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="22"/>
@@ -2517,7 +2561,7 @@
       <c r="L77" s="16"/>
       <c r="M77" s="18"/>
     </row>
-    <row r="78" spans="1:13" ht="121.25" customHeight="1">
+    <row r="78" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="22"/>
@@ -2532,7 +2576,7 @@
       <c r="L78" s="16"/>
       <c r="M78" s="18"/>
     </row>
-    <row r="79" spans="1:13" ht="49.5" customHeight="1">
+    <row r="79" spans="1:13" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="22"/>
@@ -2547,7 +2591,7 @@
       <c r="L79" s="16"/>
       <c r="M79" s="18"/>
     </row>
-    <row r="80" spans="1:13" ht="56.4" customHeight="1">
+    <row r="80" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="22"/>
@@ -2562,7 +2606,7 @@
       <c r="L80" s="16"/>
       <c r="M80" s="18"/>
     </row>
-    <row r="81" spans="1:13" ht="104" customHeight="1">
+    <row r="81" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="22"/>
@@ -2577,7 +2621,7 @@
       <c r="L81" s="16"/>
       <c r="M81" s="18"/>
     </row>
-    <row r="82" spans="1:13" ht="95.4" customHeight="1">
+    <row r="82" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="22"/>
@@ -2592,7 +2636,7 @@
       <c r="L82" s="16"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" spans="1:13" ht="78" customHeight="1">
+    <row r="83" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="22"/>
@@ -2607,7 +2651,7 @@
       <c r="L83" s="16"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" spans="1:13" ht="17.5">
+    <row r="84" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="22"/>
@@ -2622,7 +2666,7 @@
       <c r="L84" s="16"/>
       <c r="M84" s="18"/>
     </row>
-    <row r="85" spans="1:13" ht="17.5">
+    <row r="85" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="22"/>
@@ -2637,7 +2681,7 @@
       <c r="L85" s="16"/>
       <c r="M85" s="18"/>
     </row>
-    <row r="86" spans="1:13" ht="17.5">
+    <row r="86" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="22"/>
@@ -2652,7 +2696,7 @@
       <c r="L86" s="16"/>
       <c r="M86" s="18"/>
     </row>
-    <row r="87" spans="1:13" ht="17.5">
+    <row r="87" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="22"/>
@@ -2667,7 +2711,7 @@
       <c r="L87" s="16"/>
       <c r="M87" s="18"/>
     </row>
-    <row r="88" spans="1:13" ht="17.5">
+    <row r="88" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="22"/>
@@ -2682,7 +2726,7 @@
       <c r="L88" s="16"/>
       <c r="M88" s="18"/>
     </row>
-    <row r="89" spans="1:13" ht="17.5">
+    <row r="89" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="22"/>
@@ -2697,7 +2741,7 @@
       <c r="L89" s="16"/>
       <c r="M89" s="18"/>
     </row>
-    <row r="90" spans="1:13" ht="17.5">
+    <row r="90" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="22"/>
@@ -2712,7 +2756,7 @@
       <c r="L90" s="16"/>
       <c r="M90" s="18"/>
     </row>
-    <row r="91" spans="1:13" ht="17.5">
+    <row r="91" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="22"/>
@@ -2727,7 +2771,7 @@
       <c r="L91" s="16"/>
       <c r="M91" s="18"/>
     </row>
-    <row r="92" spans="1:13" ht="108" customHeight="1">
+    <row r="92" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="22"/>
@@ -2742,7 +2786,7 @@
       <c r="L92" s="16"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:13" ht="17.5">
+    <row r="93" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="22"/>
@@ -2757,7 +2801,7 @@
       <c r="L93" s="16"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:13" ht="17.5">
+    <row r="94" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="22"/>
@@ -2772,7 +2816,7 @@
       <c r="L94" s="16"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:13" ht="70.75" customHeight="1">
+    <row r="95" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="22"/>
@@ -2787,7 +2831,7 @@
       <c r="L95" s="16"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:13" ht="17.5">
+    <row r="96" spans="1:13" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="22"/>
@@ -2802,14 +2846,14 @@
       <c r="L96" s="16"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:15" ht="17.5">
+    <row r="97" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="22"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="29"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="15"/>
       <c r="H97" s="10"/>
       <c r="I97" s="17"/>
       <c r="J97" s="27"/>
@@ -2817,7 +2861,7 @@
       <c r="L97" s="16"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:15" ht="17.5">
+    <row r="98" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="22"/>
@@ -2832,7 +2876,7 @@
       <c r="L98" s="16"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:15" ht="17.5">
+    <row r="99" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="22"/>
@@ -2847,7 +2891,7 @@
       <c r="L99" s="16"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:15" ht="17.5">
+    <row r="100" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="22"/>
@@ -2858,29 +2902,29 @@
       <c r="H100" s="10"/>
       <c r="I100" s="17"/>
       <c r="J100" s="27"/>
-      <c r="K100" s="21"/>
+      <c r="K100" s="18"/>
       <c r="L100" s="16"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:15" ht="17.5">
+    <row r="101" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="22"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="15"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="29"/>
       <c r="H101" s="10"/>
       <c r="I101" s="17"/>
       <c r="J101" s="27"/>
-      <c r="K101" s="18"/>
+      <c r="K101" s="21"/>
       <c r="L101" s="16"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:15" ht="17.5">
+    <row r="102" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="19"/>
+      <c r="C102" s="22"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="44"/>
@@ -2890,24 +2934,24 @@
       <c r="J102" s="27"/>
       <c r="K102" s="18"/>
       <c r="L102" s="16"/>
-      <c r="M102" s="25"/>
-    </row>
-    <row r="103" spans="1:15" ht="17.5">
+      <c r="M102" s="18"/>
+    </row>
+    <row r="103" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="45"/>
-      <c r="G103" s="22"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="15"/>
       <c r="H103" s="10"/>
       <c r="I103" s="17"/>
       <c r="J103" s="27"/>
       <c r="K103" s="18"/>
-      <c r="L103" s="24"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="25"/>
     </row>
-    <row r="104" spans="1:15" ht="17.5">
+    <row r="104" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="22"/>
@@ -2922,7 +2966,7 @@
       <c r="L104" s="24"/>
       <c r="M104" s="25"/>
     </row>
-    <row r="105" spans="1:15" ht="17.5">
+    <row r="105" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="22"/>
@@ -2937,7 +2981,7 @@
       <c r="L105" s="24"/>
       <c r="M105" s="25"/>
     </row>
-    <row r="106" spans="1:15" ht="17.5">
+    <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="22"/>
@@ -2952,7 +2996,7 @@
       <c r="L106" s="24"/>
       <c r="M106" s="25"/>
     </row>
-    <row r="107" spans="1:15" ht="17.5">
+    <row r="107" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="22"/>
@@ -2967,7 +3011,7 @@
       <c r="L107" s="24"/>
       <c r="M107" s="25"/>
     </row>
-    <row r="108" spans="1:15" ht="88" customHeight="1">
+    <row r="108" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="22"/>
@@ -2982,7 +3026,7 @@
       <c r="L108" s="24"/>
       <c r="M108" s="25"/>
     </row>
-    <row r="109" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="109" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="22"/>
@@ -2996,10 +3040,8 @@
       <c r="K109" s="18"/>
       <c r="L109" s="24"/>
       <c r="M109" s="25"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="12"/>
-    </row>
-    <row r="110" spans="1:15" s="11" customFormat="1" ht="17.5">
+    </row>
+    <row r="110" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="22"/>
@@ -3016,7 +3058,7 @@
       <c r="N110" s="38"/>
       <c r="O110" s="12"/>
     </row>
-    <row r="111" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="111" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22"/>
@@ -3033,24 +3075,24 @@
       <c r="N111" s="38"/>
       <c r="O111" s="12"/>
     </row>
-    <row r="112" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="112" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="15"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="22"/>
       <c r="H112" s="10"/>
       <c r="I112" s="17"/>
       <c r="J112" s="27"/>
       <c r="K112" s="18"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="18"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="25"/>
       <c r="N112" s="38"/>
       <c r="O112" s="12"/>
     </row>
-    <row r="113" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="113" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="19"/>
@@ -3067,7 +3109,7 @@
       <c r="N113" s="38"/>
       <c r="O113" s="12"/>
     </row>
-    <row r="114" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="114" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="19"/>
@@ -3080,11 +3122,11 @@
       <c r="J114" s="27"/>
       <c r="K114" s="18"/>
       <c r="L114" s="16"/>
-      <c r="M114" s="25"/>
+      <c r="M114" s="18"/>
       <c r="N114" s="38"/>
       <c r="O114" s="12"/>
     </row>
-    <row r="115" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="115" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="19"/>
@@ -3101,61 +3143,61 @@
       <c r="N115" s="38"/>
       <c r="O115" s="12"/>
     </row>
-    <row r="116" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="116" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="22"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="15"/>
       <c r="H116" s="10"/>
       <c r="I116" s="17"/>
       <c r="J116" s="27"/>
       <c r="K116" s="18"/>
-      <c r="L116" s="24"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="25"/>
       <c r="N116" s="38"/>
       <c r="O116" s="12"/>
     </row>
-    <row r="117" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="117" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="14"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="22"/>
       <c r="H117" s="10"/>
       <c r="I117" s="17"/>
       <c r="J117" s="27"/>
       <c r="K117" s="18"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="21"/>
+      <c r="L117" s="24"/>
+      <c r="M117" s="25"/>
       <c r="N117" s="38"/>
       <c r="O117" s="12"/>
     </row>
-    <row r="118" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="118" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="28"/>
+      <c r="C118" s="19"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="19"/>
       <c r="G118" s="14"/>
       <c r="H118" s="10"/>
-      <c r="I118" s="15"/>
+      <c r="I118" s="17"/>
       <c r="J118" s="27"/>
       <c r="K118" s="18"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="18"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="21"/>
       <c r="N118" s="38"/>
       <c r="O118" s="12"/>
     </row>
-    <row r="119" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="119" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
-      <c r="C119" s="19"/>
+      <c r="C119" s="28"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="19"/>
@@ -3169,7 +3211,7 @@
       <c r="N119" s="38"/>
       <c r="O119" s="12"/>
     </row>
-    <row r="120" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="120" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="19"/>
@@ -3186,7 +3228,7 @@
       <c r="N120" s="38"/>
       <c r="O120" s="12"/>
     </row>
-    <row r="121" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="121" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="19"/>
@@ -3203,7 +3245,7 @@
       <c r="N121" s="38"/>
       <c r="O121" s="12"/>
     </row>
-    <row r="122" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="122" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="19"/>
@@ -3220,7 +3262,7 @@
       <c r="N122" s="38"/>
       <c r="O122" s="12"/>
     </row>
-    <row r="123" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="123" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="19"/>
@@ -3237,7 +3279,7 @@
       <c r="N123" s="38"/>
       <c r="O123" s="12"/>
     </row>
-    <row r="124" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="124" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="19"/>
@@ -3254,7 +3296,7 @@
       <c r="N124" s="38"/>
       <c r="O124" s="12"/>
     </row>
-    <row r="125" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1">
+    <row r="125" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="19"/>
@@ -3271,7 +3313,7 @@
       <c r="N125" s="38"/>
       <c r="O125" s="12"/>
     </row>
-    <row r="126" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="126" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="19"/>
@@ -3288,7 +3330,7 @@
       <c r="N126" s="38"/>
       <c r="O126" s="12"/>
     </row>
-    <row r="127" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1">
+    <row r="127" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="19"/>
@@ -3305,7 +3347,7 @@
       <c r="N127" s="38"/>
       <c r="O127" s="12"/>
     </row>
-    <row r="128" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="128" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="19"/>
@@ -3322,7 +3364,7 @@
       <c r="N128" s="38"/>
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="129" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="19"/>
@@ -3339,7 +3381,7 @@
       <c r="N129" s="38"/>
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="1:15" s="11" customFormat="1" ht="132.65" customHeight="1">
+    <row r="130" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="19"/>
@@ -3350,13 +3392,13 @@
       <c r="H130" s="10"/>
       <c r="I130" s="15"/>
       <c r="J130" s="27"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="21"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="16"/>
+      <c r="M130" s="18"/>
       <c r="N130" s="38"/>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="1:15" s="11" customFormat="1" ht="120.65" customHeight="1">
+    <row r="131" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="19"/>
@@ -3367,13 +3409,13 @@
       <c r="H131" s="10"/>
       <c r="I131" s="15"/>
       <c r="J131" s="27"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="18"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="20"/>
+      <c r="M131" s="21"/>
       <c r="N131" s="38"/>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="132" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="19"/>
@@ -3384,13 +3426,13 @@
       <c r="H132" s="10"/>
       <c r="I132" s="15"/>
       <c r="J132" s="27"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="21"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="16"/>
+      <c r="M132" s="18"/>
       <c r="N132" s="38"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1">
+    <row r="133" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="19"/>
@@ -3402,12 +3444,12 @@
       <c r="I133" s="15"/>
       <c r="J133" s="27"/>
       <c r="K133" s="21"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="25"/>
+      <c r="L133" s="20"/>
+      <c r="M133" s="21"/>
       <c r="N133" s="38"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1">
+    <row r="134" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="19"/>
@@ -3418,16 +3460,16 @@
       <c r="H134" s="10"/>
       <c r="I134" s="15"/>
       <c r="J134" s="27"/>
-      <c r="K134" s="18"/>
+      <c r="K134" s="21"/>
       <c r="L134" s="16"/>
       <c r="M134" s="25"/>
       <c r="N134" s="38"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="135" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="22"/>
+      <c r="C135" s="19"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
       <c r="F135" s="19"/>
@@ -3436,12 +3478,12 @@
       <c r="I135" s="15"/>
       <c r="J135" s="27"/>
       <c r="K135" s="18"/>
-      <c r="L135" s="24"/>
+      <c r="L135" s="16"/>
       <c r="M135" s="25"/>
       <c r="N135" s="38"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1">
+    <row r="136" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="22"/>
@@ -3458,7 +3500,7 @@
       <c r="N136" s="38"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" s="11" customFormat="1" ht="63.65" customHeight="1">
+    <row r="137" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="22"/>
@@ -3470,12 +3512,12 @@
       <c r="I137" s="15"/>
       <c r="J137" s="27"/>
       <c r="K137" s="18"/>
-      <c r="L137" s="16"/>
-      <c r="M137" s="18"/>
+      <c r="L137" s="24"/>
+      <c r="M137" s="25"/>
       <c r="N137" s="38"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1">
+    <row r="138" spans="1:15" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="22"/>
@@ -3486,13 +3528,13 @@
       <c r="H138" s="10"/>
       <c r="I138" s="15"/>
       <c r="J138" s="27"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="21"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="16"/>
+      <c r="M138" s="18"/>
       <c r="N138" s="38"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" ht="45.65" customHeight="1">
+    <row r="139" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="22"/>
@@ -3506,8 +3548,10 @@
       <c r="K139" s="21"/>
       <c r="L139" s="20"/>
       <c r="M139" s="21"/>
-    </row>
-    <row r="140" spans="1:15" ht="82.75" customHeight="1">
+      <c r="N139" s="38"/>
+      <c r="O139" s="12"/>
+    </row>
+    <row r="140" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="22"/>
@@ -3522,10 +3566,10 @@
       <c r="L140" s="20"/>
       <c r="M140" s="21"/>
     </row>
-    <row r="141" spans="1:15" ht="17.5">
+    <row r="141" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="19"/>
+      <c r="C141" s="22"/>
       <c r="D141" s="14"/>
       <c r="E141" s="14"/>
       <c r="F141" s="19"/>
@@ -3537,7 +3581,7 @@
       <c r="L141" s="20"/>
       <c r="M141" s="21"/>
     </row>
-    <row r="142" spans="1:15" ht="100.25" customHeight="1">
+    <row r="142" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="19"/>
@@ -3552,7 +3596,7 @@
       <c r="L142" s="20"/>
       <c r="M142" s="21"/>
     </row>
-    <row r="143" spans="1:15" ht="103.25" customHeight="1">
+    <row r="143" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="19"/>
@@ -3567,22 +3611,22 @@
       <c r="L143" s="20"/>
       <c r="M143" s="21"/>
     </row>
-    <row r="144" spans="1:15" ht="89.4" customHeight="1">
+    <row r="144" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="15"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="14"/>
       <c r="H144" s="10"/>
       <c r="I144" s="15"/>
       <c r="J144" s="27"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="16"/>
-      <c r="M144" s="18"/>
-    </row>
-    <row r="145" spans="1:15" ht="77.400000000000006" customHeight="1">
+      <c r="K144" s="21"/>
+      <c r="L144" s="20"/>
+      <c r="M144" s="21"/>
+    </row>
+    <row r="145" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="22"/>
@@ -3597,10 +3641,10 @@
       <c r="L145" s="16"/>
       <c r="M145" s="18"/>
     </row>
-    <row r="146" spans="1:15" ht="73.25" customHeight="1">
+    <row r="146" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
-      <c r="C146" s="14"/>
+      <c r="C146" s="22"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="44"/>
@@ -3611,10 +3655,8 @@
       <c r="K146" s="18"/>
       <c r="L146" s="16"/>
       <c r="M146" s="18"/>
-      <c r="N146" s="39"/>
-      <c r="O146" s="33"/>
-    </row>
-    <row r="147" spans="1:15" ht="102.5" customHeight="1">
+    </row>
+    <row r="147" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="14"/>
@@ -3631,7 +3673,7 @@
       <c r="N147" s="39"/>
       <c r="O147" s="33"/>
     </row>
-    <row r="148" spans="1:15" ht="73.25" customHeight="1">
+    <row r="148" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="14"/>
@@ -3645,11 +3687,13 @@
       <c r="K148" s="18"/>
       <c r="L148" s="16"/>
       <c r="M148" s="18"/>
-    </row>
-    <row r="149" spans="1:15" ht="67.75" customHeight="1">
+      <c r="N148" s="39"/>
+      <c r="O148" s="33"/>
+    </row>
+    <row r="149" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="19"/>
+      <c r="C149" s="14"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="44"/>
@@ -3660,10 +3704,8 @@
       <c r="K149" s="18"/>
       <c r="L149" s="16"/>
       <c r="M149" s="18"/>
-      <c r="N149" s="39"/>
-      <c r="O149" s="33"/>
-    </row>
-    <row r="150" spans="1:15" ht="71.400000000000006" customHeight="1">
+    </row>
+    <row r="150" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="19"/>
@@ -3674,13 +3716,13 @@
       <c r="H150" s="10"/>
       <c r="I150" s="15"/>
       <c r="J150" s="27"/>
-      <c r="K150" s="21"/>
+      <c r="K150" s="18"/>
       <c r="L150" s="16"/>
-      <c r="M150" s="31"/>
+      <c r="M150" s="18"/>
       <c r="N150" s="39"/>
       <c r="O150" s="33"/>
     </row>
-    <row r="151" spans="1:15" ht="69.650000000000006" customHeight="1">
+    <row r="151" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="19"/>
@@ -3691,13 +3733,13 @@
       <c r="H151" s="10"/>
       <c r="I151" s="15"/>
       <c r="J151" s="27"/>
-      <c r="K151" s="18"/>
+      <c r="K151" s="21"/>
       <c r="L151" s="16"/>
-      <c r="M151" s="18"/>
+      <c r="M151" s="31"/>
       <c r="N151" s="39"/>
       <c r="O151" s="33"/>
     </row>
-    <row r="152" spans="1:15" ht="43.25" customHeight="1">
+    <row r="152" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="19"/>
@@ -3708,13 +3750,13 @@
       <c r="H152" s="10"/>
       <c r="I152" s="15"/>
       <c r="J152" s="27"/>
-      <c r="K152" s="32"/>
+      <c r="K152" s="18"/>
       <c r="L152" s="16"/>
       <c r="M152" s="18"/>
       <c r="N152" s="39"/>
       <c r="O152" s="33"/>
     </row>
-    <row r="153" spans="1:15" ht="53.4" customHeight="1">
+    <row r="153" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="19"/>
@@ -3725,13 +3767,13 @@
       <c r="H153" s="10"/>
       <c r="I153" s="15"/>
       <c r="J153" s="27"/>
-      <c r="K153" s="18"/>
+      <c r="K153" s="32"/>
       <c r="L153" s="16"/>
-      <c r="M153" s="21"/>
-      <c r="N153" s="40"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="39"/>
       <c r="O153" s="33"/>
     </row>
-    <row r="154" spans="1:15" ht="79.25" customHeight="1">
+    <row r="154" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="19"/>
@@ -3748,7 +3790,7 @@
       <c r="N154" s="40"/>
       <c r="O154" s="33"/>
     </row>
-    <row r="155" spans="1:15" ht="120.65" customHeight="1">
+    <row r="155" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="19"/>
@@ -3759,16 +3801,16 @@
       <c r="H155" s="10"/>
       <c r="I155" s="15"/>
       <c r="J155" s="27"/>
-      <c r="K155" s="21"/>
+      <c r="K155" s="18"/>
       <c r="L155" s="16"/>
-      <c r="M155" s="18"/>
+      <c r="M155" s="21"/>
       <c r="N155" s="40"/>
       <c r="O155" s="33"/>
     </row>
-    <row r="156" spans="1:15" ht="94.75" customHeight="1">
+    <row r="156" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="22"/>
+      <c r="C156" s="19"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="44"/>
@@ -3776,11 +3818,13 @@
       <c r="H156" s="10"/>
       <c r="I156" s="15"/>
       <c r="J156" s="27"/>
-      <c r="K156" s="18"/>
+      <c r="K156" s="21"/>
       <c r="L156" s="16"/>
       <c r="M156" s="18"/>
-    </row>
-    <row r="157" spans="1:15" ht="67.75" customHeight="1">
+      <c r="N156" s="40"/>
+      <c r="O156" s="33"/>
+    </row>
+    <row r="157" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
@@ -3795,7 +3839,7 @@
       <c r="L157" s="16"/>
       <c r="M157" s="18"/>
     </row>
-    <row r="158" spans="1:15" ht="17.5">
+    <row r="158" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="22"/>
@@ -3810,7 +3854,7 @@
       <c r="L158" s="16"/>
       <c r="M158" s="18"/>
     </row>
-    <row r="159" spans="1:15" ht="17.5">
+    <row r="159" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="22"/>
@@ -3825,7 +3869,7 @@
       <c r="L159" s="16"/>
       <c r="M159" s="18"/>
     </row>
-    <row r="160" spans="1:15" ht="17.5">
+    <row r="160" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="22"/>
@@ -3840,7 +3884,7 @@
       <c r="L160" s="16"/>
       <c r="M160" s="18"/>
     </row>
-    <row r="161" spans="1:13" ht="17.5">
+    <row r="161" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="22"/>
@@ -3855,7 +3899,7 @@
       <c r="L161" s="16"/>
       <c r="M161" s="18"/>
     </row>
-    <row r="162" spans="1:13" ht="17.5">
+    <row r="162" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="22"/>
@@ -3870,14 +3914,30 @@
       <c r="L162" s="16"/>
       <c r="M162" s="18"/>
     </row>
+    <row r="163" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163" s="6"/>
+      <c r="B163" s="7"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="44"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="27"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="16"/>
+      <c r="M163" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3:H8" r:id="rId2" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H4:H9" r:id="rId2" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>